--- a/src/test/resources/xls/user/keys.xlsx
+++ b/src/test/resources/xls/user/keys.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiandafu/git/beetlsql/src/test/resources/xls/user/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3075" windowWidth="20175" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="5020" yWindow="2960" windowWidth="20180" windowHeight="8460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -12,20 +17,22 @@
     <sheet name="update" sheetId="3" r:id="rId3"/>
     <sheet name="delete" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>##MUTIPLE_KEYS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +126,10 @@
   </si>
   <si>
     <t>$value.description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +190,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -200,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -242,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,10 +502,10 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
@@ -503,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -517,80 +527,80 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -604,35 +614,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -642,13 +652,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -656,13 +666,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -670,13 +680,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -763,28 +773,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -793,13 +803,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -807,13 +817,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
